--- a/data/pca/factorExposure/factorExposure_2019-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1281173995957091</v>
+        <v>0.07926391599933146</v>
       </c>
       <c r="C2">
-        <v>0.01205192004466645</v>
+        <v>-0.02479072024847649</v>
       </c>
       <c r="D2">
-        <v>-0.04458193746800123</v>
+        <v>0.04465831593322053</v>
       </c>
       <c r="E2">
-        <v>0.09235231569331286</v>
+        <v>-0.03855401608580351</v>
       </c>
       <c r="F2">
-        <v>0.106776485533495</v>
+        <v>0.1377258418507512</v>
       </c>
       <c r="G2">
-        <v>0.08273319468618781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09771901367096693</v>
+      </c>
+      <c r="H2">
+        <v>-0.07874837746935746</v>
+      </c>
+      <c r="I2">
+        <v>-0.02428147619421729</v>
+      </c>
+      <c r="J2">
+        <v>0.04237268583027454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2102952101146938</v>
+        <v>0.1575709464746639</v>
       </c>
       <c r="C3">
-        <v>-0.09398171555053041</v>
+        <v>-0.09002128223067304</v>
       </c>
       <c r="D3">
-        <v>0.01046554793528976</v>
+        <v>-0.03443680141063195</v>
       </c>
       <c r="E3">
-        <v>0.3250924771681605</v>
+        <v>-0.04533966418799222</v>
       </c>
       <c r="F3">
-        <v>0.03679712851315502</v>
+        <v>0.378277823332534</v>
       </c>
       <c r="G3">
-        <v>0.3267368930714856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.02857676851071364</v>
+      </c>
+      <c r="H3">
+        <v>-0.2957917326159064</v>
+      </c>
+      <c r="I3">
+        <v>-0.1343674751865882</v>
+      </c>
+      <c r="J3">
+        <v>0.4133943553977938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09713125918334854</v>
+        <v>0.07398497553296214</v>
       </c>
       <c r="C4">
-        <v>-0.02711531408184532</v>
+        <v>-0.03843532477926125</v>
       </c>
       <c r="D4">
-        <v>-0.02031776768850034</v>
+        <v>0.02186636053818384</v>
       </c>
       <c r="E4">
-        <v>0.07248805199028055</v>
+        <v>0.02409600404444957</v>
       </c>
       <c r="F4">
-        <v>0.0524954932914246</v>
+        <v>0.09361067264683293</v>
       </c>
       <c r="G4">
-        <v>0.03359789905936744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03608764139063828</v>
+      </c>
+      <c r="H4">
+        <v>-0.03009608364232316</v>
+      </c>
+      <c r="I4">
+        <v>-0.02599505280406803</v>
+      </c>
+      <c r="J4">
+        <v>0.03574018172231716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01753093461003208</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004622908828079013</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0005300802417920414</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006491629304182257</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002604648708514499</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0184790320250577</v>
+      </c>
+      <c r="H6">
+        <v>-0.001445261774502845</v>
+      </c>
+      <c r="I6">
+        <v>0.008038219151277979</v>
+      </c>
+      <c r="J6">
+        <v>-0.003275529348280121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04036185619492138</v>
+        <v>0.03167406897793633</v>
       </c>
       <c r="C7">
-        <v>-0.006062319175560211</v>
+        <v>-0.01798333526078431</v>
       </c>
       <c r="D7">
-        <v>-0.03374005838327174</v>
+        <v>0.0177034244772188</v>
       </c>
       <c r="E7">
-        <v>0.07410966201294877</v>
+        <v>0.01043770916303845</v>
       </c>
       <c r="F7">
-        <v>-0.03879603326398653</v>
+        <v>0.06151799845647401</v>
       </c>
       <c r="G7">
-        <v>0.01529650313222827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01219244164167505</v>
+      </c>
+      <c r="H7">
+        <v>-0.05582351285330456</v>
+      </c>
+      <c r="I7">
+        <v>0.01264452871216187</v>
+      </c>
+      <c r="J7">
+        <v>0.003294678990040353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04091976249279931</v>
+        <v>0.03128475955837091</v>
       </c>
       <c r="C8">
-        <v>-0.03987482619807602</v>
+        <v>-0.04066948257087368</v>
       </c>
       <c r="D8">
-        <v>-0.003004277563470614</v>
+        <v>0.004851260571976542</v>
       </c>
       <c r="E8">
-        <v>0.07106607372823961</v>
+        <v>0.01522337784686689</v>
       </c>
       <c r="F8">
-        <v>0.003969551484461744</v>
+        <v>0.08491791254863117</v>
       </c>
       <c r="G8">
-        <v>0.05338167910638082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.001877135501118194</v>
+      </c>
+      <c r="H8">
+        <v>-0.05577326566619435</v>
+      </c>
+      <c r="I8">
+        <v>-0.02500130162023521</v>
+      </c>
+      <c r="J8">
+        <v>0.03263877259667614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08542332310575763</v>
+        <v>0.0626675404759824</v>
       </c>
       <c r="C9">
-        <v>-0.02990592880740369</v>
+        <v>-0.03805282232651931</v>
       </c>
       <c r="D9">
-        <v>-0.03093528435220438</v>
+        <v>0.02250654291691579</v>
       </c>
       <c r="E9">
-        <v>0.06569079998511877</v>
+        <v>0.02573528358997545</v>
       </c>
       <c r="F9">
-        <v>0.0330273498290768</v>
+        <v>0.09425278216489606</v>
       </c>
       <c r="G9">
-        <v>0.04040895536377696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02769812557533258</v>
+      </c>
+      <c r="H9">
+        <v>-0.02655709629480246</v>
+      </c>
+      <c r="I9">
+        <v>-0.003790573791239346</v>
+      </c>
+      <c r="J9">
+        <v>0.0005811960001289415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.008329065801705756</v>
+        <v>0.01501707585685797</v>
       </c>
       <c r="C10">
-        <v>0.1599686793673162</v>
+        <v>0.1579112411893697</v>
       </c>
       <c r="D10">
-        <v>0.009922383113618519</v>
+        <v>-0.009999458104553242</v>
       </c>
       <c r="E10">
-        <v>0.05812109129900204</v>
+        <v>-0.03444375243906332</v>
       </c>
       <c r="F10">
-        <v>0.01562900292942909</v>
+        <v>0.05911157912277828</v>
       </c>
       <c r="G10">
-        <v>0.0008517318085745748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02148318646481547</v>
+      </c>
+      <c r="H10">
+        <v>-0.003783884250649077</v>
+      </c>
+      <c r="I10">
+        <v>-0.1205000704067591</v>
+      </c>
+      <c r="J10">
+        <v>0.007300200914049054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05784980020680349</v>
+        <v>0.04900521982678396</v>
       </c>
       <c r="C11">
-        <v>-0.006014727436558432</v>
+        <v>-0.02442194165726003</v>
       </c>
       <c r="D11">
-        <v>0.008106455690507757</v>
+        <v>0.006908263982348083</v>
       </c>
       <c r="E11">
-        <v>0.04133940193015485</v>
+        <v>-0.01487739551066195</v>
       </c>
       <c r="F11">
-        <v>0.007115719644064116</v>
+        <v>0.04448777952368678</v>
       </c>
       <c r="G11">
-        <v>-0.03141403391511381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.003051363458400601</v>
+      </c>
+      <c r="H11">
+        <v>-0.01151328861718876</v>
+      </c>
+      <c r="I11">
+        <v>0.0200837731598491</v>
+      </c>
+      <c r="J11">
+        <v>0.005944958263406526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04326263858189767</v>
+        <v>0.04418577823023049</v>
       </c>
       <c r="C12">
-        <v>-0.01218104538827335</v>
+        <v>-0.02369365951602942</v>
       </c>
       <c r="D12">
-        <v>0.00510020899800398</v>
+        <v>0.005863865393604994</v>
       </c>
       <c r="E12">
-        <v>0.03343445981553889</v>
+        <v>0.0002478131377659284</v>
       </c>
       <c r="F12">
-        <v>0.002804440006662996</v>
+        <v>0.02525195508327934</v>
       </c>
       <c r="G12">
-        <v>-0.006948334324301093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003914046649684076</v>
+      </c>
+      <c r="H12">
+        <v>-0.009058886703663869</v>
+      </c>
+      <c r="I12">
+        <v>0.01836392876901401</v>
+      </c>
+      <c r="J12">
+        <v>-0.0009696244774564879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06025075129936416</v>
+        <v>0.04189788068511614</v>
       </c>
       <c r="C13">
-        <v>-0.01731446623660326</v>
+        <v>-0.02413877218852525</v>
       </c>
       <c r="D13">
-        <v>0.006038846669692704</v>
+        <v>0.009047680141830451</v>
       </c>
       <c r="E13">
-        <v>0.1103277665195097</v>
+        <v>-0.02774955847463728</v>
       </c>
       <c r="F13">
-        <v>0.02674236810590186</v>
+        <v>0.1037107193275517</v>
       </c>
       <c r="G13">
-        <v>0.03145076036597017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.01158938408523994</v>
+      </c>
+      <c r="H13">
+        <v>-0.05903086475451213</v>
+      </c>
+      <c r="I13">
+        <v>-0.002825721075080853</v>
+      </c>
+      <c r="J13">
+        <v>0.03023006166340945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03685152045468303</v>
+        <v>0.02851302138487884</v>
       </c>
       <c r="C14">
-        <v>-0.00901722986947736</v>
+        <v>-0.01729010282051738</v>
       </c>
       <c r="D14">
-        <v>-0.02127279779389999</v>
+        <v>0.02186422367841059</v>
       </c>
       <c r="E14">
-        <v>0.02118583018623384</v>
+        <v>0.006326554259853803</v>
       </c>
       <c r="F14">
-        <v>-0.0007351144405799931</v>
+        <v>0.04178211019076437</v>
       </c>
       <c r="G14">
-        <v>0.01229844911175429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01670985887491926</v>
+      </c>
+      <c r="H14">
+        <v>-0.0572756131466396</v>
+      </c>
+      <c r="I14">
+        <v>-0.01149098578648488</v>
+      </c>
+      <c r="J14">
+        <v>-0.0137135941139672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04765121624319214</v>
+        <v>0.04305750763334992</v>
       </c>
       <c r="C16">
-        <v>-0.02235980706044303</v>
+        <v>-0.03248175133763136</v>
       </c>
       <c r="D16">
-        <v>0.01522539134472074</v>
+        <v>0.001261889658122067</v>
       </c>
       <c r="E16">
-        <v>0.03877868928295651</v>
+        <v>-0.009819198087502512</v>
       </c>
       <c r="F16">
-        <v>0.001547049506634581</v>
+        <v>0.03789520268420842</v>
       </c>
       <c r="G16">
-        <v>-0.01803928890241622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.008049224682422661</v>
+      </c>
+      <c r="H16">
+        <v>-0.0146219318204284</v>
+      </c>
+      <c r="I16">
+        <v>0.01745219545959495</v>
+      </c>
+      <c r="J16">
+        <v>0.004554132682914313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05051694841320702</v>
+        <v>0.04472776437744935</v>
       </c>
       <c r="C19">
-        <v>-0.0259556775024019</v>
+        <v>-0.03496235326291567</v>
       </c>
       <c r="D19">
-        <v>-0.001397726130161665</v>
+        <v>0.008901850796878162</v>
       </c>
       <c r="E19">
-        <v>0.07920457747878426</v>
+        <v>-0.009535781932982794</v>
       </c>
       <c r="F19">
-        <v>-0.001496331783921274</v>
+        <v>0.09136224061078402</v>
       </c>
       <c r="G19">
-        <v>0.04774450159273404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0002729784383541595</v>
+      </c>
+      <c r="H19">
+        <v>-0.08743695865713166</v>
+      </c>
+      <c r="I19">
+        <v>-0.02069880624923</v>
+      </c>
+      <c r="J19">
+        <v>0.02422512650048739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03649554946785383</v>
+        <v>0.01756638264082709</v>
       </c>
       <c r="C20">
-        <v>-0.03511976506514981</v>
+        <v>-0.03395607203862778</v>
       </c>
       <c r="D20">
-        <v>-0.0144552890047191</v>
+        <v>0.01318181473889884</v>
       </c>
       <c r="E20">
-        <v>0.06667512764955194</v>
+        <v>0.008196744585929653</v>
       </c>
       <c r="F20">
-        <v>-0.008617423332520704</v>
+        <v>0.07689808600677037</v>
       </c>
       <c r="G20">
-        <v>0.02450149494083268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.00463751083007413</v>
+      </c>
+      <c r="H20">
+        <v>-0.07497395919493789</v>
+      </c>
+      <c r="I20">
+        <v>-0.009836053807148864</v>
+      </c>
+      <c r="J20">
+        <v>0.04487775032324091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03869212871871257</v>
+        <v>0.02076058744964124</v>
       </c>
       <c r="C21">
-        <v>-0.0159993449764909</v>
+        <v>-0.02699285298961251</v>
       </c>
       <c r="D21">
-        <v>-0.0002589144339054046</v>
+        <v>-0.004118509359565388</v>
       </c>
       <c r="E21">
-        <v>0.08657530709391</v>
+        <v>0.003626479803019028</v>
       </c>
       <c r="F21">
-        <v>0.05268434154662509</v>
+        <v>0.08319390100255179</v>
       </c>
       <c r="G21">
-        <v>0.01469928777067321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02475474559072086</v>
+      </c>
+      <c r="H21">
+        <v>-0.03446884667551441</v>
+      </c>
+      <c r="I21">
+        <v>0.009101046362753327</v>
+      </c>
+      <c r="J21">
+        <v>-0.02085395844292155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04824243243820704</v>
+        <v>0.04148630026871074</v>
       </c>
       <c r="C24">
-        <v>-0.01499632023947897</v>
+        <v>-0.02154302693341392</v>
       </c>
       <c r="D24">
-        <v>0.002723537114557662</v>
+        <v>0.006113847678177034</v>
       </c>
       <c r="E24">
-        <v>0.04834087642586954</v>
+        <v>-0.007217217138772521</v>
       </c>
       <c r="F24">
-        <v>0.003639391427265391</v>
+        <v>0.04556740010915256</v>
       </c>
       <c r="G24">
-        <v>-0.01236286431111638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009089537562988387</v>
+      </c>
+      <c r="H24">
+        <v>-0.01345916644963137</v>
+      </c>
+      <c r="I24">
+        <v>0.01769547094100877</v>
+      </c>
+      <c r="J24">
+        <v>0.01415060203779749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.04855475134628946</v>
+        <v>0.04306332711235955</v>
       </c>
       <c r="C25">
-        <v>-0.004640602944083898</v>
+        <v>-0.02149691437619499</v>
       </c>
       <c r="D25">
-        <v>0.004838529530664563</v>
+        <v>0.004354884933493773</v>
       </c>
       <c r="E25">
-        <v>0.04559576810264158</v>
+        <v>-0.01028103721602583</v>
       </c>
       <c r="F25">
-        <v>0.01167570598010854</v>
+        <v>0.04915263332182045</v>
       </c>
       <c r="G25">
-        <v>-0.01902694205842544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.001496242543883437</v>
+      </c>
+      <c r="H25">
+        <v>-0.007533237085419576</v>
+      </c>
+      <c r="I25">
+        <v>0.01827528623245901</v>
+      </c>
+      <c r="J25">
+        <v>0.005527895164579901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.007522882699094004</v>
+        <v>0.01278231409588749</v>
       </c>
       <c r="C26">
-        <v>-0.01631612946079226</v>
+        <v>-0.01822606288589287</v>
       </c>
       <c r="D26">
-        <v>-0.005509461960150293</v>
+        <v>-0.0002237708296400144</v>
       </c>
       <c r="E26">
-        <v>0.05001410375884296</v>
+        <v>-0.01706205916583664</v>
       </c>
       <c r="F26">
-        <v>0.02020717334443618</v>
+        <v>0.05232276997012916</v>
       </c>
       <c r="G26">
-        <v>-0.003204088151828629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01108094768129151</v>
+      </c>
+      <c r="H26">
+        <v>-0.03762357946181141</v>
+      </c>
+      <c r="I26">
+        <v>0.0105592130182923</v>
+      </c>
+      <c r="J26">
+        <v>0.01029466467356064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1093239126117301</v>
+        <v>0.08145902156321728</v>
       </c>
       <c r="C27">
-        <v>-0.01839010046585431</v>
+        <v>-0.02567694996785878</v>
       </c>
       <c r="D27">
-        <v>-0.022278293690524</v>
+        <v>0.02767529767205256</v>
       </c>
       <c r="E27">
-        <v>0.1098145502408076</v>
+        <v>0.008429469215844849</v>
       </c>
       <c r="F27">
-        <v>0.02755062964362089</v>
+        <v>0.08543856444367101</v>
       </c>
       <c r="G27">
-        <v>0.005075457081310932</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.005923582274936751</v>
+      </c>
+      <c r="H27">
+        <v>-0.01254314010673233</v>
+      </c>
+      <c r="I27">
+        <v>-0.006960715538144406</v>
+      </c>
+      <c r="J27">
+        <v>0.02294127873538367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.006794848877643707</v>
+        <v>0.02929442840105992</v>
       </c>
       <c r="C28">
-        <v>0.2462151653577003</v>
+        <v>0.2355924914425906</v>
       </c>
       <c r="D28">
-        <v>0.01995902538496254</v>
+        <v>-0.01625238815793166</v>
       </c>
       <c r="E28">
-        <v>0.03159706453751496</v>
+        <v>-0.02782396402477275</v>
       </c>
       <c r="F28">
-        <v>0.01020623272937936</v>
+        <v>0.0419479456173935</v>
       </c>
       <c r="G28">
-        <v>0.01215599721064143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0243548404387339</v>
+      </c>
+      <c r="H28">
+        <v>0.00639861707264937</v>
+      </c>
+      <c r="I28">
+        <v>-0.1670757264696415</v>
+      </c>
+      <c r="J28">
+        <v>0.02430077713834728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02099532293510181</v>
+        <v>0.02155564418591999</v>
       </c>
       <c r="C29">
-        <v>-0.01624568981303088</v>
+        <v>-0.01953894539331901</v>
       </c>
       <c r="D29">
-        <v>-0.02301807309258178</v>
+        <v>0.0197645503786279</v>
       </c>
       <c r="E29">
-        <v>0.02847823374248623</v>
+        <v>0.01212799317296002</v>
       </c>
       <c r="F29">
-        <v>0.01058217143449796</v>
+        <v>0.0433395710879724</v>
       </c>
       <c r="G29">
-        <v>0.00697135911348567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01759447654265846</v>
+      </c>
+      <c r="H29">
+        <v>-0.0528226247534633</v>
+      </c>
+      <c r="I29">
+        <v>-0.003349706697717712</v>
+      </c>
+      <c r="J29">
+        <v>-0.03060865082772872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.10574936543451</v>
+        <v>0.09895127881615919</v>
       </c>
       <c r="C30">
-        <v>-0.00850866040757358</v>
+        <v>-0.03777216774826563</v>
       </c>
       <c r="D30">
-        <v>-0.02184643569353169</v>
+        <v>0.03529273612041371</v>
       </c>
       <c r="E30">
-        <v>0.113228288540714</v>
+        <v>-0.02182412270023005</v>
       </c>
       <c r="F30">
-        <v>0.02972989361531589</v>
+        <v>0.1083141213118472</v>
       </c>
       <c r="G30">
-        <v>-0.07911809427543455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009274439583948271</v>
+      </c>
+      <c r="H30">
+        <v>-0.007557291333476746</v>
+      </c>
+      <c r="I30">
+        <v>0.02438001524782411</v>
+      </c>
+      <c r="J30">
+        <v>-0.007075853272274214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.0581326069828784</v>
+        <v>0.06102784287066837</v>
       </c>
       <c r="C31">
-        <v>-0.0140618586448155</v>
+        <v>-0.02202376470798349</v>
       </c>
       <c r="D31">
-        <v>-0.01501520602624302</v>
+        <v>0.02036900658002403</v>
       </c>
       <c r="E31">
-        <v>-0.02112413059214858</v>
+        <v>-0.009720282741737267</v>
       </c>
       <c r="F31">
-        <v>0.007180843901286988</v>
+        <v>0.005588874360570518</v>
       </c>
       <c r="G31">
-        <v>-0.02257707268689287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03690147175452579</v>
+      </c>
+      <c r="H31">
+        <v>-0.0420377297138578</v>
+      </c>
+      <c r="I31">
+        <v>-0.01121418133963781</v>
+      </c>
+      <c r="J31">
+        <v>-0.02698803781149918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06866408220023212</v>
+        <v>0.04656814675973756</v>
       </c>
       <c r="C32">
-        <v>-0.02695834840938695</v>
+        <v>-0.04737396475776462</v>
       </c>
       <c r="D32">
-        <v>-0.01579545258303005</v>
+        <v>0.02043432033439973</v>
       </c>
       <c r="E32">
-        <v>0.115545869706518</v>
+        <v>0.007906182832702793</v>
       </c>
       <c r="F32">
-        <v>0.000848306704030552</v>
+        <v>0.1023870526333857</v>
       </c>
       <c r="G32">
-        <v>0.005979025959476727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.003042351368047465</v>
+      </c>
+      <c r="H32">
+        <v>-0.04688124186636142</v>
+      </c>
+      <c r="I32">
+        <v>-0.01519753524568356</v>
+      </c>
+      <c r="J32">
+        <v>-0.01877544205943774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06790478753116046</v>
+        <v>0.05899123926949105</v>
       </c>
       <c r="C33">
-        <v>-0.03198829939270698</v>
+        <v>-0.04766351384148256</v>
       </c>
       <c r="D33">
-        <v>-0.01044166922065043</v>
+        <v>0.006726087312855047</v>
       </c>
       <c r="E33">
-        <v>0.07079267709303476</v>
+        <v>-0.01579686834748701</v>
       </c>
       <c r="F33">
-        <v>0.04888559434404743</v>
+        <v>0.08471710800131985</v>
       </c>
       <c r="G33">
-        <v>0.003728738188909791</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02249116595536574</v>
+      </c>
+      <c r="H33">
+        <v>-0.04621776826159397</v>
+      </c>
+      <c r="I33">
+        <v>0.01930186448469063</v>
+      </c>
+      <c r="J33">
+        <v>0.005561337016110757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04762070301894304</v>
+        <v>0.04282156089359514</v>
       </c>
       <c r="C34">
-        <v>-0.01417162948461381</v>
+        <v>-0.02822174105966194</v>
       </c>
       <c r="D34">
-        <v>0.004891718110706406</v>
+        <v>0.009944418588241067</v>
       </c>
       <c r="E34">
-        <v>0.02731760495253838</v>
+        <v>-0.006694131336109146</v>
       </c>
       <c r="F34">
-        <v>-0.002205333649870753</v>
+        <v>0.03826768386057364</v>
       </c>
       <c r="G34">
-        <v>-0.006848861642021454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0001045697730457956</v>
+      </c>
+      <c r="H34">
+        <v>-0.01930330194759838</v>
+      </c>
+      <c r="I34">
+        <v>0.01758728015269067</v>
+      </c>
+      <c r="J34">
+        <v>-0.002347929783832903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01267147600641714</v>
+        <v>0.01467552263668732</v>
       </c>
       <c r="C36">
-        <v>0.01002593236515537</v>
+        <v>-0.001651281455671246</v>
       </c>
       <c r="D36">
-        <v>-0.005930790414564032</v>
+        <v>0.007145712305670547</v>
       </c>
       <c r="E36">
-        <v>0.02242506633054247</v>
+        <v>0.00234381464345914</v>
       </c>
       <c r="F36">
-        <v>0.009731871130144098</v>
+        <v>0.03136575098500601</v>
       </c>
       <c r="G36">
-        <v>-0.005414940554632776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01637569160699404</v>
+      </c>
+      <c r="H36">
+        <v>-0.03203600757781898</v>
+      </c>
+      <c r="I36">
+        <v>0.0005292537334488938</v>
+      </c>
+      <c r="J36">
+        <v>-0.02580271669164992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05688078481217466</v>
+        <v>0.03297593079417542</v>
       </c>
       <c r="C38">
-        <v>-0.00481688552042932</v>
+        <v>-0.01090148415023281</v>
       </c>
       <c r="D38">
-        <v>-0.02495751706493095</v>
+        <v>0.007431142899746374</v>
       </c>
       <c r="E38">
-        <v>0.03219336605098781</v>
+        <v>-0.0002552972063045729</v>
       </c>
       <c r="F38">
-        <v>0.0130849137038055</v>
+        <v>0.05392555300910198</v>
       </c>
       <c r="G38">
-        <v>0.04601882111626354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02631713441192019</v>
+      </c>
+      <c r="H38">
+        <v>-0.01673377838361981</v>
+      </c>
+      <c r="I38">
+        <v>0.007357261048728967</v>
+      </c>
+      <c r="J38">
+        <v>-0.03011511549893453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07463817027047842</v>
+        <v>0.05828398866514054</v>
       </c>
       <c r="C39">
-        <v>-0.01257493631901125</v>
+        <v>-0.03716460647528423</v>
       </c>
       <c r="D39">
-        <v>-0.002150925300526306</v>
+        <v>0.01703600734605184</v>
       </c>
       <c r="E39">
-        <v>0.04591496689513126</v>
+        <v>-0.0144499520094895</v>
       </c>
       <c r="F39">
-        <v>0.02416443207860411</v>
+        <v>0.05993191500633244</v>
       </c>
       <c r="G39">
-        <v>-0.02346513293710532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0116151159731006</v>
+      </c>
+      <c r="H39">
+        <v>-0.01150420051441319</v>
+      </c>
+      <c r="I39">
+        <v>0.03455972051319132</v>
+      </c>
+      <c r="J39">
+        <v>-0.0007266320446634305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.06760631864979592</v>
+        <v>0.05567994188201113</v>
       </c>
       <c r="C40">
-        <v>-0.02901619130768832</v>
+        <v>-0.03613379747336003</v>
       </c>
       <c r="D40">
-        <v>-0.006489008793838855</v>
+        <v>0.02550318123170633</v>
       </c>
       <c r="E40">
-        <v>0.1100559753490666</v>
+        <v>-0.0320375917243023</v>
       </c>
       <c r="F40">
-        <v>0.0431559183706148</v>
+        <v>0.1080719582027768</v>
       </c>
       <c r="G40">
-        <v>0.09232806077894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.006244007459054023</v>
+      </c>
+      <c r="H40">
+        <v>-0.0808003058908633</v>
+      </c>
+      <c r="I40">
+        <v>0.00622649414237121</v>
+      </c>
+      <c r="J40">
+        <v>0.05320466302608667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.004160926265217374</v>
+        <v>0.002197248224448673</v>
       </c>
       <c r="C41">
-        <v>-0.01309072287611839</v>
+        <v>-0.01205310376448958</v>
       </c>
       <c r="D41">
-        <v>-0.01744832671448138</v>
+        <v>0.005278484838570052</v>
       </c>
       <c r="E41">
-        <v>0.008470818176123662</v>
+        <v>0.001944943655390371</v>
       </c>
       <c r="F41">
-        <v>0.02400942483832429</v>
+        <v>0.01803391585836064</v>
       </c>
       <c r="G41">
-        <v>0.009366457876070648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02888819336660505</v>
+      </c>
+      <c r="H41">
+        <v>-0.0397795308749305</v>
+      </c>
+      <c r="I41">
+        <v>-0.02005603778248638</v>
+      </c>
+      <c r="J41">
+        <v>-0.01021082934227449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1331037037515062</v>
+        <v>0.2333999093576207</v>
       </c>
       <c r="C42">
-        <v>-0.1838191976836751</v>
+        <v>-0.1387538443100616</v>
       </c>
       <c r="D42">
-        <v>0.9368520221132293</v>
+        <v>-0.889512273432026</v>
       </c>
       <c r="E42">
-        <v>-0.001065537657589602</v>
+        <v>-0.257976512978302</v>
       </c>
       <c r="F42">
-        <v>-0.01739168045641513</v>
+        <v>-0.1919583556633739</v>
       </c>
       <c r="G42">
-        <v>-0.09967556210714036</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.004651983026478688</v>
+      </c>
+      <c r="H42">
+        <v>-0.008752014720310952</v>
+      </c>
+      <c r="I42">
+        <v>-0.04483456266049515</v>
+      </c>
+      <c r="J42">
+        <v>-0.002086144672833086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007760087539239779</v>
+        <v>0.005062800712177487</v>
       </c>
       <c r="C43">
-        <v>-0.01423573406017499</v>
+        <v>-0.01462449645768104</v>
       </c>
       <c r="D43">
-        <v>-0.01754157858231828</v>
+        <v>0.006182237928914266</v>
       </c>
       <c r="E43">
-        <v>0.03059138718766128</v>
+        <v>-0.0004996923625384491</v>
       </c>
       <c r="F43">
-        <v>0.00115618659971654</v>
+        <v>0.03186217590145415</v>
       </c>
       <c r="G43">
-        <v>0.002966240969378731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01191019199866665</v>
+      </c>
+      <c r="H43">
+        <v>-0.03790271795781629</v>
+      </c>
+      <c r="I43">
+        <v>-0.01032081676939523</v>
+      </c>
+      <c r="J43">
+        <v>-0.003431290229736217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.03905355451141271</v>
+        <v>0.02846713844461454</v>
       </c>
       <c r="C44">
-        <v>-0.03860784191154307</v>
+        <v>-0.03595269165041741</v>
       </c>
       <c r="D44">
-        <v>-0.01429315246105844</v>
+        <v>0.003654186084942404</v>
       </c>
       <c r="E44">
-        <v>0.1080254769005251</v>
+        <v>-0.01014081185486756</v>
       </c>
       <c r="F44">
-        <v>0.08508219280142638</v>
+        <v>0.1250697946297943</v>
       </c>
       <c r="G44">
-        <v>0.07094781097963308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03976115838989895</v>
+      </c>
+      <c r="H44">
+        <v>-0.1132509594176449</v>
+      </c>
+      <c r="I44">
+        <v>-0.02285070215041294</v>
+      </c>
+      <c r="J44">
+        <v>0.007295801624981682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02458155962137341</v>
+        <v>0.02355124890758681</v>
       </c>
       <c r="C46">
-        <v>-0.01359218943418887</v>
+        <v>-0.0270957102816821</v>
       </c>
       <c r="D46">
-        <v>-0.0224555518271611</v>
+        <v>0.01901799359536035</v>
       </c>
       <c r="E46">
-        <v>0.01956536936178776</v>
+        <v>-7.55863976454164e-05</v>
       </c>
       <c r="F46">
-        <v>0.02127231133708727</v>
+        <v>0.04938429117755983</v>
       </c>
       <c r="G46">
-        <v>0.009638835293478771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01804912287762355</v>
+      </c>
+      <c r="H46">
+        <v>-0.05991597836325969</v>
+      </c>
+      <c r="I46">
+        <v>-0.01052211648094879</v>
+      </c>
+      <c r="J46">
+        <v>-0.0095799709716969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08242065584961737</v>
+        <v>0.09059472587681075</v>
       </c>
       <c r="C47">
-        <v>-0.009382289423798158</v>
+        <v>-0.02032112451786255</v>
       </c>
       <c r="D47">
-        <v>-0.01766860565389279</v>
+        <v>0.02438571381330712</v>
       </c>
       <c r="E47">
-        <v>-0.02503481096979603</v>
+        <v>0.003754807469424156</v>
       </c>
       <c r="F47">
-        <v>0.0005825638932200946</v>
+        <v>-0.002290059228096329</v>
       </c>
       <c r="G47">
-        <v>-0.001151275910224597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03305521439009747</v>
+      </c>
+      <c r="H47">
+        <v>-0.06255250733175774</v>
+      </c>
+      <c r="I47">
+        <v>-0.01351857411304594</v>
+      </c>
+      <c r="J47">
+        <v>-0.01501912421308675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01479948299374203</v>
+        <v>0.01691022165988899</v>
       </c>
       <c r="C48">
-        <v>-0.01654822411832324</v>
+        <v>-0.01991692425100495</v>
       </c>
       <c r="D48">
-        <v>-0.01636331227025039</v>
+        <v>0.008251395288506675</v>
       </c>
       <c r="E48">
-        <v>0.03298377217379322</v>
+        <v>0.00455204111466558</v>
       </c>
       <c r="F48">
-        <v>0.01650976848732768</v>
+        <v>0.03716659440400524</v>
       </c>
       <c r="G48">
-        <v>0.003348502602269618</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008911145061433038</v>
+      </c>
+      <c r="H48">
+        <v>-0.02493882065543427</v>
+      </c>
+      <c r="I48">
+        <v>-0.009811556574180053</v>
+      </c>
+      <c r="J48">
+        <v>-0.007889506419181661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08401578311577462</v>
+        <v>0.08624770791238796</v>
       </c>
       <c r="C50">
-        <v>-0.02705868665139967</v>
+        <v>-0.0345617343004667</v>
       </c>
       <c r="D50">
-        <v>-0.02670037870375438</v>
+        <v>0.01762904751436123</v>
       </c>
       <c r="E50">
-        <v>-0.02275880330341169</v>
+        <v>0.007832225536557142</v>
       </c>
       <c r="F50">
-        <v>-0.0001261980234486439</v>
+        <v>0.003907720641254493</v>
       </c>
       <c r="G50">
-        <v>-0.01548557101294611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.003859981822002241</v>
+      </c>
+      <c r="H50">
+        <v>-0.04797426491220586</v>
+      </c>
+      <c r="I50">
+        <v>0.008680044119601538</v>
+      </c>
+      <c r="J50">
+        <v>-0.05464628069710034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06860695175568041</v>
+        <v>0.04679613234128754</v>
       </c>
       <c r="C51">
-        <v>0.02220792537034253</v>
+        <v>0.003270899251755387</v>
       </c>
       <c r="D51">
-        <v>0.002005680253969863</v>
+        <v>0.01337437681358233</v>
       </c>
       <c r="E51">
-        <v>0.07200361115022916</v>
+        <v>-0.03316546236774497</v>
       </c>
       <c r="F51">
-        <v>0.05629051596780273</v>
+        <v>0.09084718536932197</v>
       </c>
       <c r="G51">
-        <v>-0.03602475442334527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04856562777297618</v>
+      </c>
+      <c r="H51">
+        <v>-0.06534452961730713</v>
+      </c>
+      <c r="I51">
+        <v>-0.0239886454587889</v>
+      </c>
+      <c r="J51">
+        <v>-0.01766950956380958</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1471203021810577</v>
+        <v>0.128156544608028</v>
       </c>
       <c r="C53">
-        <v>-0.01119432358584844</v>
+        <v>-0.03640597273894432</v>
       </c>
       <c r="D53">
-        <v>-0.03899639209757014</v>
+        <v>0.04530143231191972</v>
       </c>
       <c r="E53">
-        <v>-0.04197395444395991</v>
+        <v>0.0136709559882597</v>
       </c>
       <c r="F53">
-        <v>-0.01796897293756072</v>
+        <v>-0.03283016384145671</v>
       </c>
       <c r="G53">
-        <v>-0.02344772447067602</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02064664400962154</v>
+      </c>
+      <c r="H53">
+        <v>-0.005125560998721945</v>
+      </c>
+      <c r="I53">
+        <v>-0.03453614809901383</v>
+      </c>
+      <c r="J53">
+        <v>0.02595350100382498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02631779621769791</v>
+        <v>0.02236446212541437</v>
       </c>
       <c r="C54">
-        <v>0.003560168707904486</v>
+        <v>-0.008722616134467318</v>
       </c>
       <c r="D54">
-        <v>-0.02888815184527166</v>
+        <v>0.02323106001450503</v>
       </c>
       <c r="E54">
-        <v>0.02831807688734421</v>
+        <v>0.01243943266256027</v>
       </c>
       <c r="F54">
-        <v>0.04406791846686328</v>
+        <v>0.0464941508934817</v>
       </c>
       <c r="G54">
-        <v>0.02184077279326431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03726034925391067</v>
+      </c>
+      <c r="H54">
+        <v>-0.05213663464271908</v>
+      </c>
+      <c r="I54">
+        <v>-0.03325762618612456</v>
+      </c>
+      <c r="J54">
+        <v>-0.03477932552740017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09808462737425067</v>
+        <v>0.1020913655063982</v>
       </c>
       <c r="C55">
-        <v>0.002074511360214242</v>
+        <v>-0.02056205790664596</v>
       </c>
       <c r="D55">
-        <v>-0.03700640410995486</v>
+        <v>0.02698550073073858</v>
       </c>
       <c r="E55">
-        <v>-0.005982337399007922</v>
+        <v>0.03733070005228595</v>
       </c>
       <c r="F55">
-        <v>-0.03200998203074705</v>
+        <v>-0.01593259798130651</v>
       </c>
       <c r="G55">
-        <v>-0.00800918619400732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01208798751365739</v>
+      </c>
+      <c r="H55">
+        <v>-0.02001220981585743</v>
+      </c>
+      <c r="I55">
+        <v>-0.01196904534251914</v>
+      </c>
+      <c r="J55">
+        <v>0.01246779086947951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1826391727572222</v>
+        <v>0.1697298885574213</v>
       </c>
       <c r="C56">
-        <v>0.01503714409226286</v>
+        <v>-0.01782571957765815</v>
       </c>
       <c r="D56">
-        <v>-0.07455950741645036</v>
+        <v>0.08123184123379078</v>
       </c>
       <c r="E56">
-        <v>-0.07142159506500596</v>
+        <v>0.04237454466145805</v>
       </c>
       <c r="F56">
-        <v>-0.07271612144997318</v>
+        <v>-0.06772346310306553</v>
       </c>
       <c r="G56">
-        <v>-0.0199524293749259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02460541332965304</v>
+      </c>
+      <c r="H56">
+        <v>0.03968859384884404</v>
+      </c>
+      <c r="I56">
+        <v>-0.01665003373469742</v>
+      </c>
+      <c r="J56">
+        <v>0.0530350180707912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.08849029913415456</v>
+        <v>0.07028768804820126</v>
       </c>
       <c r="C57">
-        <v>-0.02437041534162724</v>
+        <v>-0.02953356520514542</v>
       </c>
       <c r="D57">
-        <v>-0.02454590339017681</v>
+        <v>0.01475605750614081</v>
       </c>
       <c r="E57">
-        <v>0.06149268156799476</v>
+        <v>-0.01553642156978122</v>
       </c>
       <c r="F57">
-        <v>0.0237918682540774</v>
+        <v>0.06901837167838391</v>
       </c>
       <c r="G57">
-        <v>0.02162616834674309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.01024184059648732</v>
+      </c>
+      <c r="H57">
+        <v>-0.03632051401892884</v>
+      </c>
+      <c r="I57">
+        <v>0.01434203601122705</v>
+      </c>
+      <c r="J57">
+        <v>0.03967526880306502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.166566249592212</v>
+        <v>0.2006030282057318</v>
       </c>
       <c r="C58">
-        <v>-0.003927125542227994</v>
+        <v>-0.05422610916213797</v>
       </c>
       <c r="D58">
-        <v>0.03747104026801536</v>
+        <v>-0.007899013759259754</v>
       </c>
       <c r="E58">
-        <v>0.1494432049913743</v>
+        <v>-0.06117994280066946</v>
       </c>
       <c r="F58">
-        <v>-0.04365773389775579</v>
+        <v>0.1967816533755131</v>
       </c>
       <c r="G58">
-        <v>0.1544152011486043</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1475550468000623</v>
+      </c>
+      <c r="H58">
+        <v>-0.2960314598184982</v>
+      </c>
+      <c r="I58">
+        <v>-0.03107362189004488</v>
+      </c>
+      <c r="J58">
+        <v>-0.6685225193966976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.006748082134261651</v>
+        <v>0.03345162773168445</v>
       </c>
       <c r="C59">
-        <v>0.2062017642633294</v>
+        <v>0.198425122800483</v>
       </c>
       <c r="D59">
-        <v>-0.01051122255802906</v>
+        <v>0.01966800958928593</v>
       </c>
       <c r="E59">
-        <v>0.04708735200008635</v>
+        <v>-0.04272832507616831</v>
       </c>
       <c r="F59">
-        <v>0.009853222969461246</v>
+        <v>0.0555677690411856</v>
       </c>
       <c r="G59">
-        <v>-0.004521173716529019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002904099974516314</v>
+      </c>
+      <c r="H59">
+        <v>0.01099318974600292</v>
+      </c>
+      <c r="I59">
+        <v>-0.07238886420995284</v>
+      </c>
+      <c r="J59">
+        <v>-0.03396008219149278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1880030656569837</v>
+        <v>0.1827781342734178</v>
       </c>
       <c r="C60">
-        <v>0.1173634520258294</v>
+        <v>0.05733562295308556</v>
       </c>
       <c r="D60">
-        <v>-0.03339630219177047</v>
+        <v>0.03654144332887573</v>
       </c>
       <c r="E60">
-        <v>0.1702071775324848</v>
+        <v>-0.1073439123629073</v>
       </c>
       <c r="F60">
-        <v>0.05751315524764816</v>
+        <v>0.1838129650216376</v>
       </c>
       <c r="G60">
-        <v>-0.1382860567430644</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06323626758456631</v>
+      </c>
+      <c r="H60">
+        <v>0.2554941732223834</v>
+      </c>
+      <c r="I60">
+        <v>0.08729458828174486</v>
+      </c>
+      <c r="J60">
+        <v>-0.00884795891893928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04533338148058372</v>
+        <v>0.03821434276469297</v>
       </c>
       <c r="C61">
-        <v>0.001753691642331159</v>
+        <v>-0.01820249025549904</v>
       </c>
       <c r="D61">
-        <v>0.00761821761405115</v>
+        <v>0.003909494589222883</v>
       </c>
       <c r="E61">
-        <v>0.04873203772696122</v>
+        <v>-0.01217838484816989</v>
       </c>
       <c r="F61">
-        <v>0.02686258989793057</v>
+        <v>0.04770157207049713</v>
       </c>
       <c r="G61">
-        <v>-0.01408247705118747</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01044544742925976</v>
+      </c>
+      <c r="H61">
+        <v>-0.002237864247037065</v>
+      </c>
+      <c r="I61">
+        <v>0.03739749758831706</v>
+      </c>
+      <c r="J61">
+        <v>-0.02080097533366853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04592413739712427</v>
+        <v>0.03093358739122738</v>
       </c>
       <c r="C63">
-        <v>0.006664537105102921</v>
+        <v>-0.01652783215671296</v>
       </c>
       <c r="D63">
-        <v>-0.01528083515364662</v>
+        <v>0.01375026420749864</v>
       </c>
       <c r="E63">
-        <v>0.03863551362542354</v>
+        <v>-0.006287047742180262</v>
       </c>
       <c r="F63">
-        <v>0.007689132827803489</v>
+        <v>0.03274660782213103</v>
       </c>
       <c r="G63">
-        <v>0.002749905984329806</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.00754700280550612</v>
+      </c>
+      <c r="H63">
+        <v>-0.04589947293575478</v>
+      </c>
+      <c r="I63">
+        <v>-0.02492352699294275</v>
+      </c>
+      <c r="J63">
+        <v>0.01743601992205535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08459279367988159</v>
+        <v>0.06140089934643993</v>
       </c>
       <c r="C64">
-        <v>-0.03483717621577234</v>
+        <v>-0.04205157171111291</v>
       </c>
       <c r="D64">
-        <v>-0.05710656888468504</v>
+        <v>0.03112831642929511</v>
       </c>
       <c r="E64">
-        <v>0.05000108044962217</v>
+        <v>0.03318300748023059</v>
       </c>
       <c r="F64">
-        <v>0.09000377009408782</v>
+        <v>0.06747168705583127</v>
       </c>
       <c r="G64">
-        <v>-0.03645685581480469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05945734520574464</v>
+      </c>
+      <c r="H64">
+        <v>0.01126875082107444</v>
+      </c>
+      <c r="I64">
+        <v>-0.01558901148516954</v>
+      </c>
+      <c r="J64">
+        <v>0.07148154129417922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01913931718332167</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004616378497016178</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0006192946585140155</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006691173070907643</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-6.576050186543648e-05</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0197703395473943</v>
+      </c>
+      <c r="H65">
+        <v>0.002325435501095617</v>
+      </c>
+      <c r="I65">
+        <v>0.009640993152512406</v>
+      </c>
+      <c r="J65">
+        <v>-0.003188561093492788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09382922108903186</v>
+        <v>0.07015525891344659</v>
       </c>
       <c r="C66">
-        <v>-0.0196647203529143</v>
+        <v>-0.05078696671357069</v>
       </c>
       <c r="D66">
-        <v>-0.04085030588028853</v>
+        <v>0.0448890364682768</v>
       </c>
       <c r="E66">
-        <v>0.07607329030290362</v>
+        <v>-0.02083278221088984</v>
       </c>
       <c r="F66">
-        <v>0.04338016709719716</v>
+        <v>0.07759766012380019</v>
       </c>
       <c r="G66">
-        <v>-0.0239143477689195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01124663016289202</v>
+      </c>
+      <c r="H66">
+        <v>-0.006918322582224942</v>
+      </c>
+      <c r="I66">
+        <v>0.05364829565315211</v>
+      </c>
+      <c r="J66">
+        <v>0.02675466422336098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06464203049580811</v>
+        <v>0.04365528189466003</v>
       </c>
       <c r="C67">
-        <v>0.01912451016893145</v>
+        <v>0.005617910425256069</v>
       </c>
       <c r="D67">
-        <v>-0.0126613444459172</v>
+        <v>0.007916705164215072</v>
       </c>
       <c r="E67">
-        <v>0.02667935944192344</v>
+        <v>-0.008869569910726828</v>
       </c>
       <c r="F67">
-        <v>0.01121500604118494</v>
+        <v>0.04067656524708731</v>
       </c>
       <c r="G67">
-        <v>0.04081002396690982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03291723046704296</v>
+      </c>
+      <c r="H67">
+        <v>0.003228156566683983</v>
+      </c>
+      <c r="I67">
+        <v>0.03880345837480052</v>
+      </c>
+      <c r="J67">
+        <v>-0.01176000324898795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.004628908151821228</v>
+        <v>0.04000769089021648</v>
       </c>
       <c r="C68">
-        <v>0.2472338024037158</v>
+        <v>0.2351523581644058</v>
       </c>
       <c r="D68">
-        <v>0.002660752685706485</v>
+        <v>0.01218677247422132</v>
       </c>
       <c r="E68">
-        <v>0.03131301702334983</v>
+        <v>-0.03569872510118213</v>
       </c>
       <c r="F68">
-        <v>-0.001696142294830285</v>
+        <v>0.03732569664708627</v>
       </c>
       <c r="G68">
-        <v>0.006137242360786434</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.005668453125419305</v>
+      </c>
+      <c r="H68">
+        <v>0.0066223151387377</v>
+      </c>
+      <c r="I68">
+        <v>-0.1778958203092453</v>
+      </c>
+      <c r="J68">
+        <v>-0.02834244361836035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06979113394079305</v>
+        <v>0.07203625972366275</v>
       </c>
       <c r="C69">
-        <v>-0.0103660048093261</v>
+        <v>-0.01975387393178704</v>
       </c>
       <c r="D69">
-        <v>-0.02157684257666868</v>
+        <v>0.03135458764006591</v>
       </c>
       <c r="E69">
-        <v>-0.01187095742850943</v>
+        <v>-0.003179329489504204</v>
       </c>
       <c r="F69">
-        <v>-0.001815144576760395</v>
+        <v>0.005322138050678806</v>
       </c>
       <c r="G69">
-        <v>-0.004376285330940903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02365228390019657</v>
+      </c>
+      <c r="H69">
+        <v>-0.03978237595903886</v>
+      </c>
+      <c r="I69">
+        <v>0.005192649861622042</v>
+      </c>
+      <c r="J69">
+        <v>-0.01106132652553509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.00577642795164278</v>
+        <v>0.04286777138898164</v>
       </c>
       <c r="C71">
-        <v>0.268791190670383</v>
+        <v>0.2524145774773162</v>
       </c>
       <c r="D71">
-        <v>0.0009779412961397685</v>
+        <v>-0.005577559795446853</v>
       </c>
       <c r="E71">
-        <v>0.06240830531520828</v>
+        <v>-0.06055909335507743</v>
       </c>
       <c r="F71">
-        <v>0.01783865904318977</v>
+        <v>0.05557250340373705</v>
       </c>
       <c r="G71">
-        <v>-0.06297832883361719</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01784423744167141</v>
+      </c>
+      <c r="H71">
+        <v>0.02129595537312249</v>
+      </c>
+      <c r="I71">
+        <v>-0.1468209668402846</v>
+      </c>
+      <c r="J71">
+        <v>-0.03543841925606397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1171418064519204</v>
+        <v>0.1212399886503182</v>
       </c>
       <c r="C72">
-        <v>0.01281172668740556</v>
+        <v>-0.01099455057254369</v>
       </c>
       <c r="D72">
-        <v>-0.05004280261461535</v>
+        <v>0.05512375022743551</v>
       </c>
       <c r="E72">
-        <v>0.09007918716706971</v>
+        <v>-0.005892373054482805</v>
       </c>
       <c r="F72">
-        <v>0.008340596453245605</v>
+        <v>0.08588092538755059</v>
       </c>
       <c r="G72">
-        <v>0.05500689409245523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04758241964501545</v>
+      </c>
+      <c r="H72">
+        <v>-0.001983177099883052</v>
+      </c>
+      <c r="I72">
+        <v>0.03948736570815775</v>
+      </c>
+      <c r="J72">
+        <v>-0.1415985979974831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2762101249564267</v>
+        <v>0.2666368348297778</v>
       </c>
       <c r="C73">
-        <v>0.1955648243320129</v>
+        <v>0.1121474980158437</v>
       </c>
       <c r="D73">
-        <v>0.008314284051681187</v>
+        <v>0.009684041900408934</v>
       </c>
       <c r="E73">
-        <v>0.3110691583897728</v>
+        <v>-0.1899044170709944</v>
       </c>
       <c r="F73">
-        <v>0.08415459940159332</v>
+        <v>0.2789224256956463</v>
       </c>
       <c r="G73">
-        <v>-0.2968306890439015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1307881125793814</v>
+      </c>
+      <c r="H73">
+        <v>0.472634487462495</v>
+      </c>
+      <c r="I73">
+        <v>0.3096262232930167</v>
+      </c>
+      <c r="J73">
+        <v>-0.04125311476291812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1622733893585848</v>
+        <v>0.1534469743388334</v>
       </c>
       <c r="C74">
-        <v>0.005145948966779357</v>
+        <v>-0.0231694093711516</v>
       </c>
       <c r="D74">
-        <v>-0.04235367589313839</v>
+        <v>0.04758113574954285</v>
       </c>
       <c r="E74">
-        <v>-0.01047717026821678</v>
+        <v>0.01368893277281477</v>
       </c>
       <c r="F74">
-        <v>-0.0559712986328951</v>
+        <v>-0.04158036297568527</v>
       </c>
       <c r="G74">
-        <v>-0.0616585475633457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01797063138778876</v>
+      </c>
+      <c r="H74">
+        <v>0.02323530524601728</v>
+      </c>
+      <c r="I74">
+        <v>-0.0009750875989171766</v>
+      </c>
+      <c r="J74">
+        <v>0.0765849576017095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2372118528549648</v>
+        <v>0.2419537551450918</v>
       </c>
       <c r="C75">
-        <v>0.007589301491953288</v>
+        <v>-0.02611718468851085</v>
       </c>
       <c r="D75">
-        <v>-0.05502919267362076</v>
+        <v>0.09974892040842036</v>
       </c>
       <c r="E75">
-        <v>-0.1232080941066148</v>
+        <v>0.0306687591726684</v>
       </c>
       <c r="F75">
-        <v>-0.06772339226945996</v>
+        <v>-0.1317433941918267</v>
       </c>
       <c r="G75">
-        <v>-0.02353705269574131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.003377592935126809</v>
+      </c>
+      <c r="H75">
+        <v>0.01428547368773455</v>
+      </c>
+      <c r="I75">
+        <v>-0.0822995508422236</v>
+      </c>
+      <c r="J75">
+        <v>0.09645717441645835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2482747578499533</v>
+        <v>0.2695383484129428</v>
       </c>
       <c r="C76">
-        <v>0.01042709334088588</v>
+        <v>-0.02205265765596274</v>
       </c>
       <c r="D76">
-        <v>-0.09757593021311749</v>
+        <v>0.1232842476168923</v>
       </c>
       <c r="E76">
-        <v>-0.1136205489442839</v>
+        <v>0.07596493495300263</v>
       </c>
       <c r="F76">
-        <v>-0.087076846112794</v>
+        <v>-0.1537869535135131</v>
       </c>
       <c r="G76">
-        <v>-0.05428873763780615</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04920205136931354</v>
+      </c>
+      <c r="H76">
+        <v>0.04069662967412947</v>
+      </c>
+      <c r="I76">
+        <v>-0.005227346985840458</v>
+      </c>
+      <c r="J76">
+        <v>0.1065447918035401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1233385943986253</v>
+        <v>0.1294762521950283</v>
       </c>
       <c r="C77">
-        <v>-0.02045484873773677</v>
+        <v>-0.05538383997596751</v>
       </c>
       <c r="D77">
-        <v>0.04239176696644067</v>
+        <v>-0.04096295503874234</v>
       </c>
       <c r="E77">
-        <v>0.1699317578951374</v>
+        <v>-0.04258881048594171</v>
       </c>
       <c r="F77">
-        <v>0.02194054053916867</v>
+        <v>0.1680317835149766</v>
       </c>
       <c r="G77">
-        <v>0.1584315804235571</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02299244318734204</v>
+      </c>
+      <c r="H77">
+        <v>-0.2124138538505098</v>
+      </c>
+      <c r="I77">
+        <v>-0.1547669942911963</v>
+      </c>
+      <c r="J77">
+        <v>0.1284581534038188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08908898068703847</v>
+        <v>0.08752993023722724</v>
       </c>
       <c r="C78">
-        <v>-0.030862999762626</v>
+        <v>-0.05697753637277532</v>
       </c>
       <c r="D78">
-        <v>0.01562841077558068</v>
+        <v>-0.003975319691205175</v>
       </c>
       <c r="E78">
-        <v>0.06812576644047541</v>
+        <v>0.002381768115542777</v>
       </c>
       <c r="F78">
-        <v>0.01898234154996696</v>
+        <v>0.08969208609136638</v>
       </c>
       <c r="G78">
-        <v>0.005175043592980507</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.002144003332528824</v>
+      </c>
+      <c r="H78">
+        <v>-0.03264087816457706</v>
+      </c>
+      <c r="I78">
+        <v>-0.02011883667311997</v>
+      </c>
+      <c r="J78">
+        <v>0.0113572662815597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06423367547049152</v>
+        <v>0.1165717355121266</v>
       </c>
       <c r="C80">
-        <v>-0.006022673776606158</v>
+        <v>0.1498901121315666</v>
       </c>
       <c r="D80">
-        <v>0.01243065953481278</v>
+        <v>-0.3079730000816684</v>
       </c>
       <c r="E80">
-        <v>0.03793783786578553</v>
+        <v>0.8908219404868423</v>
       </c>
       <c r="F80">
-        <v>-0.04800095734048698</v>
+        <v>0.203511822051979</v>
       </c>
       <c r="G80">
-        <v>0.6905888059488688</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.003699227659735302</v>
+      </c>
+      <c r="H80">
+        <v>0.1161546967376761</v>
+      </c>
+      <c r="I80">
+        <v>0.03709429438397514</v>
+      </c>
+      <c r="J80">
+        <v>-0.05688756904788197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1676036459428506</v>
+        <v>0.1801050674124296</v>
       </c>
       <c r="C81">
-        <v>0.00685226296485284</v>
+        <v>-0.009963701715252871</v>
       </c>
       <c r="D81">
-        <v>-0.04160021626362467</v>
+        <v>0.08279620188882619</v>
       </c>
       <c r="E81">
-        <v>-0.1278185642599857</v>
+        <v>0.04126157537186378</v>
       </c>
       <c r="F81">
-        <v>-0.1052890622667946</v>
+        <v>-0.1434168103481828</v>
       </c>
       <c r="G81">
-        <v>-0.02904848220952591</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02663110515477363</v>
+      </c>
+      <c r="H81">
+        <v>0.01076964415471855</v>
+      </c>
+      <c r="I81">
+        <v>-0.03945697998819071</v>
+      </c>
+      <c r="J81">
+        <v>0.04531806323000444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08663546495281731</v>
+        <v>0.06691087111143207</v>
       </c>
       <c r="C83">
-        <v>-0.04337435077778966</v>
+        <v>-0.04328376641356688</v>
       </c>
       <c r="D83">
-        <v>0.08998875121622643</v>
+        <v>-0.03809562758089829</v>
       </c>
       <c r="E83">
-        <v>0.03662911238727914</v>
+        <v>-0.03494052240947219</v>
       </c>
       <c r="F83">
-        <v>0.05661236710973492</v>
+        <v>0.05137028869962806</v>
       </c>
       <c r="G83">
-        <v>0.007803512504230564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04653104843295988</v>
+      </c>
+      <c r="H83">
+        <v>-0.0340129061516474</v>
+      </c>
+      <c r="I83">
+        <v>-0.01013818970556543</v>
+      </c>
+      <c r="J83">
+        <v>0.07712785787303074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2371191997642274</v>
+        <v>0.2558560301580489</v>
       </c>
       <c r="C85">
-        <v>-0.05423922448540922</v>
+        <v>-0.05618174124383454</v>
       </c>
       <c r="D85">
-        <v>-0.04948312774841651</v>
+        <v>0.07978419748051725</v>
       </c>
       <c r="E85">
-        <v>-0.1405122783146465</v>
+        <v>0.07319853548241814</v>
       </c>
       <c r="F85">
-        <v>-0.06945962284870229</v>
+        <v>-0.1526265118195796</v>
       </c>
       <c r="G85">
-        <v>0.005121302905422923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.008814369514416578</v>
+      </c>
+      <c r="H85">
+        <v>-0.01777787082343717</v>
+      </c>
+      <c r="I85">
+        <v>-0.03712400823888111</v>
+      </c>
+      <c r="J85">
+        <v>0.1176608134216798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04891952276868881</v>
+        <v>0.03291200669592351</v>
       </c>
       <c r="C86">
-        <v>-0.03951982732669056</v>
+        <v>-0.04811555867240827</v>
       </c>
       <c r="D86">
-        <v>-0.01011637452213379</v>
+        <v>0.004764823895708038</v>
       </c>
       <c r="E86">
-        <v>0.05095289666040122</v>
+        <v>0.002444730528434038</v>
       </c>
       <c r="F86">
-        <v>0.002226103979331256</v>
+        <v>0.06917065198926374</v>
       </c>
       <c r="G86">
-        <v>0.02178626944684105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005090824485953037</v>
+      </c>
+      <c r="H86">
+        <v>-0.06243419562620751</v>
+      </c>
+      <c r="I86">
+        <v>-0.03531639759725169</v>
+      </c>
+      <c r="J86">
+        <v>0.01873331581451934</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02454368906960846</v>
+        <v>0.03701634837256674</v>
       </c>
       <c r="C87">
-        <v>0.05722349680411987</v>
+        <v>0.02248955582217406</v>
       </c>
       <c r="D87">
-        <v>-0.01802410811304162</v>
+        <v>0.006789335122239573</v>
       </c>
       <c r="E87">
-        <v>0.05843093215083325</v>
+        <v>-0.02450896967206682</v>
       </c>
       <c r="F87">
-        <v>0.05988330718315865</v>
+        <v>0.09595944431553632</v>
       </c>
       <c r="G87">
-        <v>-0.1117496942375337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02698723871333042</v>
+      </c>
+      <c r="H87">
+        <v>0.007326084830612341</v>
+      </c>
+      <c r="I87">
+        <v>0.02523521588189432</v>
+      </c>
+      <c r="J87">
+        <v>-0.06026732245209568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.0393626462426056</v>
+        <v>0.02692607349576427</v>
       </c>
       <c r="C88">
-        <v>-0.02770103772494546</v>
+        <v>-0.01846305184028233</v>
       </c>
       <c r="D88">
-        <v>-0.007250308304651881</v>
+        <v>0.01129873353023407</v>
       </c>
       <c r="E88">
-        <v>-0.002759415450091924</v>
+        <v>0.02251130309056186</v>
       </c>
       <c r="F88">
-        <v>-0.008929616551970962</v>
+        <v>0.001667536646856757</v>
       </c>
       <c r="G88">
-        <v>0.02927331142184703</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02869999400211577</v>
+      </c>
+      <c r="H88">
+        <v>-0.04086840623783431</v>
+      </c>
+      <c r="I88">
+        <v>0.03104965862169983</v>
+      </c>
+      <c r="J88">
+        <v>-0.008237781102860805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01705753151437182</v>
+        <v>0.05223730287480553</v>
       </c>
       <c r="C89">
-        <v>0.4159414457700205</v>
+        <v>0.3897981450072869</v>
       </c>
       <c r="D89">
-        <v>0.09588317552369081</v>
+        <v>-0.02156488667576889</v>
       </c>
       <c r="E89">
-        <v>-0.02426281146180719</v>
+        <v>-0.08950611066218805</v>
       </c>
       <c r="F89">
-        <v>0.0001416207608355048</v>
+        <v>0.00351576859724302</v>
       </c>
       <c r="G89">
-        <v>0.04226115441226246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04973016923677698</v>
+      </c>
+      <c r="H89">
+        <v>-0.05343035820977008</v>
+      </c>
+      <c r="I89">
+        <v>-0.2766675524481914</v>
+      </c>
+      <c r="J89">
+        <v>-0.001642624275211373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.01036270830940573</v>
+        <v>0.03809389230110233</v>
       </c>
       <c r="C90">
-        <v>0.3145281466375286</v>
+        <v>0.3345595703225003</v>
       </c>
       <c r="D90">
-        <v>0.02809442065064826</v>
+        <v>-0.01273406801373609</v>
       </c>
       <c r="E90">
-        <v>0.0266181968569682</v>
+        <v>-0.03933132814298184</v>
       </c>
       <c r="F90">
-        <v>0.01070721255706784</v>
+        <v>0.02896969718521421</v>
       </c>
       <c r="G90">
-        <v>-0.04299215523048289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02163376388238688</v>
+      </c>
+      <c r="H90">
+        <v>0.001375038223073311</v>
+      </c>
+      <c r="I90">
+        <v>-0.2207795728700963</v>
+      </c>
+      <c r="J90">
+        <v>-0.02250622728228502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3033484644167728</v>
+        <v>0.3141467273931985</v>
       </c>
       <c r="C91">
-        <v>-0.02546242373784353</v>
+        <v>-0.04410665077808571</v>
       </c>
       <c r="D91">
-        <v>-0.04384228282759863</v>
+        <v>0.09454776713058539</v>
       </c>
       <c r="E91">
-        <v>-0.2628338653569433</v>
+        <v>0.07168417089778506</v>
       </c>
       <c r="F91">
-        <v>-0.1730134593720387</v>
+        <v>-0.2802543006788736</v>
       </c>
       <c r="G91">
-        <v>0.07297229122293727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04432860606684067</v>
+      </c>
+      <c r="H91">
+        <v>0.0161745966984128</v>
+      </c>
+      <c r="I91">
+        <v>-0.1010040011310999</v>
+      </c>
+      <c r="J91">
+        <v>0.2256753744821824</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.006092073525443479</v>
+        <v>0.08787266823837886</v>
       </c>
       <c r="C92">
-        <v>0.4247326987505644</v>
+        <v>0.4436314087971726</v>
       </c>
       <c r="D92">
-        <v>0.1999214467322099</v>
+        <v>-0.04192606953440306</v>
       </c>
       <c r="E92">
-        <v>-0.1020466445301817</v>
+        <v>-0.02435350163145912</v>
       </c>
       <c r="F92">
-        <v>-0.08111957109095334</v>
+        <v>-0.1338621403296761</v>
       </c>
       <c r="G92">
-        <v>0.3122318271863216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.06956516571070209</v>
+      </c>
+      <c r="H92">
+        <v>-0.4641061164271512</v>
+      </c>
+      <c r="I92">
+        <v>0.7149029812758838</v>
+      </c>
+      <c r="J92">
+        <v>0.1428430508345652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.0171907469960372</v>
+        <v>0.04051794637287563</v>
       </c>
       <c r="C93">
-        <v>0.3725082322447961</v>
+        <v>0.4065468765679389</v>
       </c>
       <c r="D93">
-        <v>0.07365459449305974</v>
+        <v>-0.0324148837955493</v>
       </c>
       <c r="E93">
-        <v>-0.04256936507982203</v>
+        <v>-0.06883810137161289</v>
       </c>
       <c r="F93">
-        <v>-0.020868577216466</v>
+        <v>-0.0321846434943155</v>
       </c>
       <c r="G93">
-        <v>0.05912570920761245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03875612918076208</v>
+      </c>
+      <c r="H93">
+        <v>0.01355740930808725</v>
+      </c>
+      <c r="I93">
+        <v>-0.1966974191833307</v>
+      </c>
+      <c r="J93">
+        <v>0.009571294196995608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2940018573204886</v>
+        <v>0.3172856137958476</v>
       </c>
       <c r="C94">
-        <v>0.03498543928360981</v>
+        <v>-0.001319203950299839</v>
       </c>
       <c r="D94">
-        <v>0.007420800739552556</v>
+        <v>0.144373251088298</v>
       </c>
       <c r="E94">
-        <v>-0.3506644201157096</v>
+        <v>0.04976050076292662</v>
       </c>
       <c r="F94">
-        <v>-0.4288605757974535</v>
+        <v>-0.3593361543079005</v>
       </c>
       <c r="G94">
-        <v>-0.02766503098187846</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1693523422594952</v>
+      </c>
+      <c r="H94">
+        <v>-0.1241748794516447</v>
+      </c>
+      <c r="I94">
+        <v>-0.04887531205898483</v>
+      </c>
+      <c r="J94">
+        <v>-0.3232164822085403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.2011972088286367</v>
+        <v>0.1373248242531077</v>
       </c>
       <c r="C95">
-        <v>0.0272638764992974</v>
+        <v>-0.05984158067408372</v>
       </c>
       <c r="D95">
-        <v>0.01900591975120871</v>
+        <v>0.04467172603604099</v>
       </c>
       <c r="E95">
-        <v>-0.4655425392557963</v>
+        <v>-0.01848909659137476</v>
       </c>
       <c r="F95">
-        <v>0.8133076771738483</v>
+        <v>-0.05351245194633587</v>
       </c>
       <c r="G95">
-        <v>0.08485747514120441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9317532753819622</v>
+      </c>
+      <c r="H95">
+        <v>0.1176817899442907</v>
+      </c>
+      <c r="I95">
+        <v>0.03409195162198297</v>
+      </c>
+      <c r="J95">
+        <v>-0.1835398726735935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2179773724455343</v>
+        <v>0.2031843740023595</v>
       </c>
       <c r="C98">
-        <v>0.1381285074116517</v>
+        <v>0.07781132633947825</v>
       </c>
       <c r="D98">
-        <v>0.02662055082425724</v>
+        <v>0.003538953560565438</v>
       </c>
       <c r="E98">
-        <v>0.1084124115068777</v>
+        <v>-0.1418790543073901</v>
       </c>
       <c r="F98">
-        <v>0.04024766050437627</v>
+        <v>0.1292680073186157</v>
       </c>
       <c r="G98">
-        <v>-0.2309885077898618</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06190709647500003</v>
+      </c>
+      <c r="H98">
+        <v>0.3329666183438281</v>
+      </c>
+      <c r="I98">
+        <v>0.1532160852717505</v>
+      </c>
+      <c r="J98">
+        <v>0.01990554714043208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02074216552393485</v>
+        <v>0.01525169003317271</v>
       </c>
       <c r="C101">
-        <v>-0.01654751735905644</v>
+        <v>-0.03043156154987601</v>
       </c>
       <c r="D101">
-        <v>-0.02465078088508672</v>
+        <v>0.02589794047198559</v>
       </c>
       <c r="E101">
-        <v>0.02883630423314673</v>
+        <v>0.008342432131194046</v>
       </c>
       <c r="F101">
-        <v>0.01033814625571886</v>
+        <v>0.07089428006275268</v>
       </c>
       <c r="G101">
-        <v>0.007014672172158894</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.000718880827187575</v>
+      </c>
+      <c r="H101">
+        <v>-0.1076043827133497</v>
+      </c>
+      <c r="I101">
+        <v>0.01521854441850246</v>
+      </c>
+      <c r="J101">
+        <v>-0.1966777457219413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1202805004333804</v>
+        <v>0.1215955235050322</v>
       </c>
       <c r="C102">
-        <v>-0.01121992005120927</v>
+        <v>-0.02704209855080243</v>
       </c>
       <c r="D102">
-        <v>-0.03570698341321813</v>
+        <v>0.04941541294287392</v>
       </c>
       <c r="E102">
-        <v>-0.08922583007939695</v>
+        <v>0.04304326219734825</v>
       </c>
       <c r="F102">
-        <v>-0.008783239808114381</v>
+        <v>-0.0837554827618105</v>
       </c>
       <c r="G102">
-        <v>0.007863277988173253</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02784512085080712</v>
+      </c>
+      <c r="H102">
+        <v>0.01645179912672278</v>
+      </c>
+      <c r="I102">
+        <v>-0.04459180700901205</v>
+      </c>
+      <c r="J102">
+        <v>0.04567399662607398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01834542267647697</v>
+        <v>0.03050980493049664</v>
       </c>
       <c r="C103">
-        <v>-0.0005973141715722433</v>
+        <v>-0.006080481582113872</v>
       </c>
       <c r="D103">
-        <v>-0.0114785290135155</v>
+        <v>0.01682918765129963</v>
       </c>
       <c r="E103">
-        <v>-0.02285778240577156</v>
+        <v>0.02337789607817448</v>
       </c>
       <c r="F103">
-        <v>-0.01016936642485501</v>
+        <v>-0.01407996487474836</v>
       </c>
       <c r="G103">
-        <v>-0.008197108552101186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01463575262046577</v>
+      </c>
+      <c r="H103">
+        <v>-0.01532775932537412</v>
+      </c>
+      <c r="I103">
+        <v>-0.02618321830664064</v>
+      </c>
+      <c r="J103">
+        <v>0.0109703414855108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
